--- a/app/library/BP-random.xlsx
+++ b/app/library/BP-random.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mocs698-my.sharepoint.com/personal/jmikec_viktor_ai/Documents/Documents/Viktor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmikec\viktor-apps\ETABS-Connection-Designer\app\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{C97D3D6A-2271-49AE-AEA0-0ED6B93E5831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5F9699C-8022-41C4-A76E-1F44C320EC75}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3C1FF8-CEE9-4448-AE09-ADDA098509E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C6D221A-E89A-4455-BBB8-0D82225371E4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C6D221A-E89A-4455-BBB8-0D82225371E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,10 +209,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,7 +531,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,12 +583,14 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
-        <v>304.34101118536245</v>
-      </c>
-      <c r="F2" s="1">
-        <v>55.893567037302923</v>
-      </c>
+      <c r="E2">
+        <v>304</v>
+      </c>
+      <c r="F2">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -607,12 +605,14 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
-        <v>396.1236271690961</v>
-      </c>
-      <c r="F3" s="1">
-        <v>55.978767153415632</v>
-      </c>
+      <c r="E3">
+        <v>396</v>
+      </c>
+      <c r="F3">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -627,12 +627,14 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
-        <v>431.82379317477154</v>
-      </c>
-      <c r="F4" s="1">
-        <v>60.829697255107696</v>
-      </c>
+      <c r="E4">
+        <v>432</v>
+      </c>
+      <c r="F4">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -647,12 +649,14 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1">
-        <v>436.75109096732581</v>
-      </c>
-      <c r="F5" s="1">
-        <v>55.144590556989279</v>
-      </c>
+      <c r="E5">
+        <v>437</v>
+      </c>
+      <c r="F5">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -667,12 +671,14 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
-        <v>561.29575242622798</v>
-      </c>
-      <c r="F6" s="1">
-        <v>59.580708146766355</v>
-      </c>
+      <c r="E6">
+        <v>561</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -687,12 +693,14 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1">
-        <v>623.57727753686697</v>
-      </c>
-      <c r="F7" s="1">
-        <v>56.172835143472142</v>
-      </c>
+      <c r="E7">
+        <v>624</v>
+      </c>
+      <c r="F7">
+        <v>56</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -707,12 +715,14 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
-        <v>586.50435584610636</v>
-      </c>
-      <c r="F8" s="1">
-        <v>60.464309730861032</v>
-      </c>
+      <c r="E8">
+        <v>587</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -727,12 +737,14 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1">
-        <v>693.12198096835687</v>
-      </c>
-      <c r="F9" s="1">
-        <v>51.413030229346539</v>
-      </c>
+      <c r="E9">
+        <v>693</v>
+      </c>
+      <c r="F9">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -747,12 +759,14 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1">
-        <v>730.43281868684846</v>
-      </c>
-      <c r="F10" s="1">
-        <v>60.55682009437411</v>
-      </c>
+      <c r="E10">
+        <v>730</v>
+      </c>
+      <c r="F10">
+        <v>61</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -767,12 +781,14 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="1">
-        <v>821.97491018413939</v>
-      </c>
-      <c r="F11" s="1">
-        <v>113.60944109489584</v>
-      </c>
+      <c r="E11">
+        <v>822</v>
+      </c>
+      <c r="F11">
+        <v>114</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -787,12 +803,14 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1">
-        <v>970.4913205125207</v>
-      </c>
-      <c r="F12" s="1">
-        <v>114.23291391679426</v>
-      </c>
+      <c r="E12">
+        <v>970</v>
+      </c>
+      <c r="F12">
+        <v>114</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -807,12 +825,14 @@
       <c r="D13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="1">
-        <v>914.16398901539867</v>
-      </c>
-      <c r="F13" s="1">
-        <v>115.21053995980651</v>
-      </c>
+      <c r="E13">
+        <v>914</v>
+      </c>
+      <c r="F13">
+        <v>115</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -827,12 +847,14 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="1">
-        <v>1041.9395617072489</v>
-      </c>
-      <c r="F14" s="1">
-        <v>118.54388227632484</v>
-      </c>
+      <c r="E14">
+        <v>1042</v>
+      </c>
+      <c r="F14">
+        <v>119</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -847,12 +869,14 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="1">
-        <v>1199.629337763537</v>
-      </c>
-      <c r="F15" s="1">
-        <v>109.98487737081174</v>
-      </c>
+      <c r="E15">
+        <v>1200</v>
+      </c>
+      <c r="F15">
+        <v>110</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -867,14 +891,16 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="1">
-        <v>1192.6397775030614</v>
-      </c>
-      <c r="F16" s="1">
-        <v>105.22431826601932</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>1193</v>
+      </c>
+      <c r="F16">
+        <v>105</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -887,14 +913,16 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="1">
-        <v>1274.6938870544586</v>
-      </c>
-      <c r="F17" s="1">
-        <v>110.45522727009467</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>1275</v>
+      </c>
+      <c r="F17">
+        <v>110</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -907,14 +935,16 @@
       <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="1">
-        <v>1336.9447133211193</v>
-      </c>
-      <c r="F18" s="1">
-        <v>114.83181950738492</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>1337</v>
+      </c>
+      <c r="F18">
+        <v>115</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -927,14 +957,16 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="1">
-        <v>1153.7998895526969</v>
-      </c>
-      <c r="F19" s="1">
-        <v>117.72663162375403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1154</v>
+      </c>
+      <c r="F19">
+        <v>118</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -947,14 +979,16 @@
       <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="1">
-        <v>1181.327047345532</v>
-      </c>
-      <c r="F20" s="1">
-        <v>110.38063071893136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1181</v>
+      </c>
+      <c r="F20">
+        <v>110</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -967,14 +1001,16 @@
       <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="1">
-        <v>1344.0546699380259</v>
-      </c>
-      <c r="F21" s="1">
-        <v>110.38762120819581</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1344</v>
+      </c>
+      <c r="F21">
+        <v>110</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -987,14 +1023,16 @@
       <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1">
-        <v>1474.0286160335827</v>
-      </c>
-      <c r="F22" s="1">
-        <v>106.61984119521237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>1474</v>
+      </c>
+      <c r="F22">
+        <v>107</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1007,14 +1045,16 @@
       <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="1">
-        <v>1630.2543666277859</v>
-      </c>
-      <c r="F23" s="1">
-        <v>116.78252159384751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>1630</v>
+      </c>
+      <c r="F23">
+        <v>117</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1027,14 +1067,16 @@
       <c r="D24" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="1">
-        <v>1576.8320347455592</v>
-      </c>
-      <c r="F24" s="1">
-        <v>120.14171111500272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>1577</v>
+      </c>
+      <c r="F24">
+        <v>120</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1047,14 +1089,16 @@
       <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="1">
-        <v>1742.2176391091232</v>
-      </c>
-      <c r="F25" s="1">
-        <v>118.82487052789038</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>1742</v>
+      </c>
+      <c r="F25">
+        <v>119</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1067,14 +1111,16 @@
       <c r="D26" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="1">
-        <v>1907.6156209796438</v>
-      </c>
-      <c r="F26" s="1">
-        <v>118.59949699729727</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>1908</v>
+      </c>
+      <c r="F26">
+        <v>119</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1087,14 +1133,16 @@
       <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="1">
-        <v>2093.1885223947206</v>
-      </c>
-      <c r="F27" s="1">
-        <v>122.39702278019695</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>2093</v>
+      </c>
+      <c r="F27">
+        <v>122</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1107,14 +1155,16 @@
       <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="1">
-        <v>2395.0540006784877</v>
-      </c>
-      <c r="F28" s="1">
-        <v>124.86303574777563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>2395</v>
+      </c>
+      <c r="F28">
+        <v>125</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1127,14 +1177,16 @@
       <c r="D29" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="1">
-        <v>1611.7385808780491</v>
-      </c>
-      <c r="F29" s="1">
-        <v>114.02469582490578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>1612</v>
+      </c>
+      <c r="F29">
+        <v>114</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1147,14 +1199,16 @@
       <c r="D30" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="1">
-        <v>1684.2665674472582</v>
-      </c>
-      <c r="F30" s="1">
-        <v>109.40525818761051</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>1684</v>
+      </c>
+      <c r="F30">
+        <v>109</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1167,14 +1221,16 @@
       <c r="D31" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="1">
-        <v>1829.4582777561477</v>
-      </c>
-      <c r="F31" s="1">
-        <v>111.88376454437086</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>1829</v>
+      </c>
+      <c r="F31">
+        <v>112</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1187,14 +1243,16 @@
       <c r="D32" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="1">
-        <v>1703.1048072092351</v>
-      </c>
-      <c r="F32" s="1">
-        <v>104.48738051016562</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>1703</v>
+      </c>
+      <c r="F32">
+        <v>104</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1207,14 +1265,16 @@
       <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="1">
-        <v>324.33009330936778</v>
-      </c>
-      <c r="F33" s="1">
-        <v>53.091102934163445</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>324</v>
+      </c>
+      <c r="F33">
+        <v>53</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1227,14 +1287,16 @@
       <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="1">
-        <v>463.75094846796242</v>
-      </c>
-      <c r="F34" s="1">
-        <v>54.069962175237798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>464</v>
+      </c>
+      <c r="F34">
+        <v>54</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1247,14 +1309,16 @@
       <c r="D35" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="1">
-        <v>469.45662096690307</v>
-      </c>
-      <c r="F35" s="1">
-        <v>60.204132845883784</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>469</v>
+      </c>
+      <c r="F35">
+        <v>60</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1267,14 +1331,16 @@
       <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="1">
-        <v>468.22050473141036</v>
-      </c>
-      <c r="F36" s="1">
-        <v>52.794688729220397</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>468</v>
+      </c>
+      <c r="F36">
+        <v>53</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1287,14 +1353,16 @@
       <c r="D37" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="1">
-        <v>526.48007485646201</v>
-      </c>
-      <c r="F37" s="1">
-        <v>60.704745780970931</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>526</v>
+      </c>
+      <c r="F37">
+        <v>61</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1307,14 +1375,16 @@
       <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="1">
-        <v>654.23595982109396</v>
-      </c>
-      <c r="F38" s="1">
-        <v>58.514767767014831</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>654</v>
+      </c>
+      <c r="F38">
+        <v>59</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1327,14 +1397,16 @@
       <c r="D39" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="1">
-        <v>776.34879160228422</v>
-      </c>
-      <c r="F39" s="1">
-        <v>51.507988858896304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>776</v>
+      </c>
+      <c r="F39">
+        <v>52</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1347,14 +1419,16 @@
       <c r="D40" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="1">
-        <v>786.21658178404459</v>
-      </c>
-      <c r="F40" s="1">
-        <v>60.532739067738419</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>786</v>
+      </c>
+      <c r="F40">
+        <v>61</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1367,14 +1441,16 @@
       <c r="D41" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="1">
-        <v>948.12821084315863</v>
-      </c>
-      <c r="F41" s="1">
-        <v>53.924071942173818</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>948</v>
+      </c>
+      <c r="F41">
+        <v>54</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1387,14 +1463,16 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="1">
-        <v>1170.1102329366693</v>
-      </c>
-      <c r="F42" s="1">
-        <v>122.36572781497313</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>1170</v>
+      </c>
+      <c r="F42">
+        <v>122</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1407,14 +1485,16 @@
       <c r="D43" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="1">
-        <v>1436.1697232506101</v>
-      </c>
-      <c r="F43" s="1">
-        <v>106.18262001560578</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>1436</v>
+      </c>
+      <c r="F43">
+        <v>106</v>
+      </c>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1427,14 +1507,16 @@
       <c r="D44" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="1">
-        <v>1485.144204424832</v>
-      </c>
-      <c r="F44" s="1">
-        <v>104.67034908110985</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>1485</v>
+      </c>
+      <c r="F44">
+        <v>105</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1447,14 +1529,16 @@
       <c r="D45" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="1">
-        <v>1863.5280537090725</v>
-      </c>
-      <c r="F45" s="1">
-        <v>114.73992666301461</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>1864</v>
+      </c>
+      <c r="F45">
+        <v>115</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1467,14 +1551,16 @@
       <c r="D46" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="1">
-        <v>1968.0710067943439</v>
-      </c>
-      <c r="F46" s="1">
-        <v>161.70913825712057</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>1968</v>
+      </c>
+      <c r="F46">
+        <v>162</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1487,14 +1573,16 @@
       <c r="D47" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="1">
-        <v>2531.9894891438785</v>
-      </c>
-      <c r="F47" s="1">
-        <v>166.85396587419979</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>2532</v>
+      </c>
+      <c r="F47">
+        <v>167</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1507,14 +1595,16 @@
       <c r="D48" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="1">
-        <v>2461.0070713343616</v>
-      </c>
-      <c r="F48" s="1">
-        <v>189.27273090624016</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>2461</v>
+      </c>
+      <c r="F48">
+        <v>189</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1527,14 +1617,16 @@
       <c r="D49" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="1">
-        <v>2921.885609945376</v>
-      </c>
-      <c r="F49" s="1">
-        <v>175.9020496447404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>2922</v>
+      </c>
+      <c r="F49">
+        <v>176</v>
+      </c>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1547,14 +1639,16 @@
       <c r="D50" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="1">
-        <v>2040.7649790216637</v>
-      </c>
-      <c r="F50" s="1">
-        <v>165.55908961079606</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>2041</v>
+      </c>
+      <c r="F50">
+        <v>166</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1567,14 +1661,16 @@
       <c r="D51" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="1">
-        <v>1914.1685426711099</v>
-      </c>
-      <c r="F51" s="1">
-        <v>161.22088616298808</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>1914</v>
+      </c>
+      <c r="F51">
+        <v>161</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1587,14 +1683,16 @@
       <c r="D52" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="1">
-        <v>2118.160145181911</v>
-      </c>
-      <c r="F52" s="1">
-        <v>179.59861600768795</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>2118</v>
+      </c>
+      <c r="F52">
+        <v>180</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1607,14 +1705,16 @@
       <c r="D53" t="s">
         <v>26</v>
       </c>
-      <c r="E53" s="1">
-        <v>3031.2986686142126</v>
-      </c>
-      <c r="F53" s="1">
-        <v>162.06864591676867</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>3031</v>
+      </c>
+      <c r="F53">
+        <v>162</v>
+      </c>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1627,14 +1727,16 @@
       <c r="D54" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="1">
-        <v>2978.9531733561171</v>
-      </c>
-      <c r="F54" s="1">
-        <v>165.29112526493222</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>2979</v>
+      </c>
+      <c r="F54">
+        <v>165</v>
+      </c>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1647,14 +1749,16 @@
       <c r="D55" t="s">
         <v>28</v>
       </c>
-      <c r="E55" s="1">
-        <v>3211.3409987588711</v>
-      </c>
-      <c r="F55" s="1">
-        <v>164.94109804122996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>3211</v>
+      </c>
+      <c r="F55">
+        <v>165</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1667,14 +1771,16 @@
       <c r="D56" t="s">
         <v>29</v>
       </c>
-      <c r="E56" s="1">
-        <v>3511.9999307522403</v>
-      </c>
-      <c r="F56" s="1">
-        <v>167.72266198256722</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>3512</v>
+      </c>
+      <c r="F56">
+        <v>168</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1687,14 +1793,16 @@
       <c r="D57" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="1">
-        <v>3511.3433190645933</v>
-      </c>
-      <c r="F57" s="1">
-        <v>273.18594183406265</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>3511</v>
+      </c>
+      <c r="F57">
+        <v>273</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1707,14 +1815,16 @@
       <c r="D58" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="1">
-        <v>4621.5659870973304</v>
-      </c>
-      <c r="F58" s="1">
-        <v>239.22125768017352</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>4622</v>
+      </c>
+      <c r="F58">
+        <v>239</v>
+      </c>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1727,14 +1837,16 @@
       <c r="D59" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="1">
-        <v>3995.3976911934719</v>
-      </c>
-      <c r="F59" s="1">
-        <v>254.40796260560271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>3995</v>
+      </c>
+      <c r="F59">
+        <v>254</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1747,14 +1859,16 @@
       <c r="D60" t="s">
         <v>33</v>
       </c>
-      <c r="E60" s="1">
-        <v>2778.2581309712468</v>
-      </c>
-      <c r="F60" s="1">
-        <v>195.89133032647567</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>2778</v>
+      </c>
+      <c r="F60">
+        <v>196</v>
+      </c>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1767,14 +1881,16 @@
       <c r="D61" t="s">
         <v>34</v>
       </c>
-      <c r="E61" s="1">
-        <v>2758.0215113546742</v>
-      </c>
-      <c r="F61" s="1">
-        <v>164.09505078606659</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>2758</v>
+      </c>
+      <c r="F61">
+        <v>164</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1787,14 +1903,16 @@
       <c r="D62" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="1">
-        <v>2919.2086719072645</v>
-      </c>
-      <c r="F62" s="1">
-        <v>167.1537559416266</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>2919</v>
+      </c>
+      <c r="F62">
+        <v>167</v>
+      </c>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1807,14 +1925,16 @@
       <c r="D63" t="s">
         <v>36</v>
       </c>
-      <c r="E63" s="1">
-        <v>3420.4264632475661</v>
-      </c>
-      <c r="F63" s="1">
-        <v>185.95932870579699</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>3420</v>
+      </c>
+      <c r="F63">
+        <v>186</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1827,14 +1947,16 @@
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="1">
-        <v>318.45216676047636</v>
-      </c>
-      <c r="F64" s="1">
-        <v>57.130318470588257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>318</v>
+      </c>
+      <c r="F64">
+        <v>57</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1847,14 +1969,16 @@
       <c r="D65" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="1">
-        <v>543.38324714700173</v>
-      </c>
-      <c r="F65" s="1">
-        <v>62.417385614160843</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>543</v>
+      </c>
+      <c r="F65">
+        <v>62</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1867,14 +1991,16 @@
       <c r="D66" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="1">
-        <v>719.61246857810227</v>
-      </c>
-      <c r="F66" s="1">
-        <v>56.820293440686939</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>720</v>
+      </c>
+      <c r="F66">
+        <v>57</v>
+      </c>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1887,14 +2013,16 @@
       <c r="D67" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="1">
-        <v>873.79086852923797</v>
-      </c>
-      <c r="F67" s="1">
-        <v>56.178516756935927</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>874</v>
+      </c>
+      <c r="F67">
+        <v>56</v>
+      </c>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1907,14 +2035,16 @@
       <c r="D68" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="1">
-        <v>1075.3914065482104</v>
-      </c>
-      <c r="F68" s="1">
-        <v>54.49953498190515</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>1075</v>
+      </c>
+      <c r="F68">
+        <v>54</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1927,14 +2057,16 @@
       <c r="D69" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="1">
-        <v>1045.0900434582825</v>
-      </c>
-      <c r="F69" s="1">
-        <v>57.048953824560257</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>1045</v>
+      </c>
+      <c r="F69">
+        <v>57</v>
+      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1947,14 +2079,16 @@
       <c r="D70" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="1">
-        <v>1231.9642900721931</v>
-      </c>
-      <c r="F70" s="1">
-        <v>80.375131019702849</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>1232</v>
+      </c>
+      <c r="F70">
+        <v>80</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1967,14 +2101,16 @@
       <c r="D71" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="1">
-        <v>1697.7923545811532</v>
-      </c>
-      <c r="F71" s="1">
-        <v>87.149654975523916</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>1698</v>
+      </c>
+      <c r="F71">
+        <v>87</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1987,14 +2123,16 @@
       <c r="D72" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="1">
-        <v>1760.5812304545452</v>
-      </c>
-      <c r="F72" s="1">
-        <v>111.47356412275248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>1761</v>
+      </c>
+      <c r="F72">
+        <v>111</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2007,14 +2145,16 @@
       <c r="D73" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="1">
-        <v>1819.1517174332298</v>
-      </c>
-      <c r="F73" s="1">
-        <v>118.13372138775046</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>1819</v>
+      </c>
+      <c r="F73">
+        <v>118</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2027,14 +2167,16 @@
       <c r="D74" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="1">
-        <v>2141.9116617418917</v>
-      </c>
-      <c r="F74" s="1">
-        <v>121.88701553380157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>2142</v>
+      </c>
+      <c r="F74">
+        <v>122</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2047,14 +2189,16 @@
       <c r="D75" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="1">
-        <v>2810.2180910972311</v>
-      </c>
-      <c r="F75" s="1">
-        <v>190.83923545875024</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>2810</v>
+      </c>
+      <c r="F75">
+        <v>191</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2067,14 +2211,16 @@
       <c r="D76" t="s">
         <v>9</v>
       </c>
-      <c r="E76" s="1">
-        <v>781.80364257200301</v>
-      </c>
-      <c r="F76" s="1">
-        <v>53.261086395571439</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>782</v>
+      </c>
+      <c r="F76">
+        <v>53</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2087,14 +2233,16 @@
       <c r="D77" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="1">
-        <v>3162.7491659096922</v>
-      </c>
-      <c r="F77" s="1">
-        <v>189.36099295535058</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>3163</v>
+      </c>
+      <c r="F77">
+        <v>189</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2107,14 +2255,16 @@
       <c r="D78" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="1">
-        <v>3727.6938729811577</v>
-      </c>
-      <c r="F78" s="1">
-        <v>231.42524308863977</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>3728</v>
+      </c>
+      <c r="F78">
+        <v>231</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2127,14 +2277,16 @@
       <c r="D79" t="s">
         <v>21</v>
       </c>
-      <c r="E79" s="1">
-        <v>4454.5650912325154</v>
-      </c>
-      <c r="F79" s="1">
-        <v>275.32186175724024</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>4455</v>
+      </c>
+      <c r="F79">
+        <v>275</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2147,14 +2299,16 @@
       <c r="D80" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="1">
-        <v>4763.847742391551</v>
-      </c>
-      <c r="F80" s="1">
-        <v>278.08348208853033</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>4764</v>
+      </c>
+      <c r="F80">
+        <v>278</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2167,14 +2321,16 @@
       <c r="D81" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="1">
-        <v>2749.0071134203499</v>
-      </c>
-      <c r="F81" s="1">
-        <v>182.62919556285507</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>2749</v>
+      </c>
+      <c r="F81">
+        <v>183</v>
+      </c>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2187,14 +2343,16 @@
       <c r="D82" t="s">
         <v>24</v>
       </c>
-      <c r="E82" s="1">
-        <v>2904.6885331473009</v>
-      </c>
-      <c r="F82" s="1">
-        <v>168.82854519490519</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>2905</v>
+      </c>
+      <c r="F82">
+        <v>169</v>
+      </c>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2207,14 +2365,16 @@
       <c r="D83" t="s">
         <v>25</v>
       </c>
-      <c r="E83" s="1">
-        <v>3371.8506655125302</v>
-      </c>
-      <c r="F83" s="1">
-        <v>161.50086557464718</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>3372</v>
+      </c>
+      <c r="F83">
+        <v>162</v>
+      </c>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2227,14 +2387,16 @@
       <c r="D84" t="s">
         <v>26</v>
       </c>
-      <c r="E84" s="1">
-        <v>5053.3024465773306</v>
-      </c>
-      <c r="F84" s="1">
-        <v>250.12224890718318</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>5053</v>
+      </c>
+      <c r="F84">
+        <v>250</v>
+      </c>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2247,14 +2409,16 @@
       <c r="D85" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="1">
-        <v>5345.4995722521289</v>
-      </c>
-      <c r="F85" s="1">
-        <v>276.13783594056264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>5345</v>
+      </c>
+      <c r="F85">
+        <v>276</v>
+      </c>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2267,14 +2431,16 @@
       <c r="D86" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="1">
-        <v>5456.1594010511908</v>
-      </c>
-      <c r="F86" s="1">
-        <v>405.93794883663872</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>5456</v>
+      </c>
+      <c r="F86">
+        <v>406</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -2287,14 +2453,16 @@
       <c r="D87" t="s">
         <v>29</v>
       </c>
-      <c r="E87" s="1">
-        <v>6680.7048006024634</v>
-      </c>
-      <c r="F87" s="1">
-        <v>435.87810111432725</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>6681</v>
+      </c>
+      <c r="F87">
+        <v>436</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2307,14 +2475,16 @@
       <c r="D88" t="s">
         <v>30</v>
       </c>
-      <c r="E88" s="1">
-        <v>6471.4893699882368</v>
-      </c>
-      <c r="F88" s="1">
-        <v>407.91014384471811</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>6471</v>
+      </c>
+      <c r="F88">
+        <v>408</v>
+      </c>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -2327,14 +2497,16 @@
       <c r="D89" t="s">
         <v>31</v>
       </c>
-      <c r="E89" s="1">
-        <v>6382.1882917861622</v>
-      </c>
-      <c r="F89" s="1">
-        <v>425.40498559772726</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>6382</v>
+      </c>
+      <c r="F89">
+        <v>425</v>
+      </c>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -2347,14 +2519,16 @@
       <c r="D90" t="s">
         <v>32</v>
       </c>
-      <c r="E90" s="1">
-        <v>8042.669244425475</v>
-      </c>
-      <c r="F90" s="1">
-        <v>442.44059658546354</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>8043</v>
+      </c>
+      <c r="F90">
+        <v>442</v>
+      </c>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -2367,14 +2541,16 @@
       <c r="D91" t="s">
         <v>33</v>
       </c>
-      <c r="E91" s="1">
-        <v>4430.9581016073726</v>
-      </c>
-      <c r="F91" s="1">
-        <v>372.47075233615317</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>4431</v>
+      </c>
+      <c r="F91">
+        <v>372</v>
+      </c>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -2387,14 +2563,16 @@
       <c r="D92" t="s">
         <v>34</v>
       </c>
-      <c r="E92" s="1">
-        <v>4460.3217958118339</v>
-      </c>
-      <c r="F92" s="1">
-        <v>262.33805345717656</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>4460</v>
+      </c>
+      <c r="F92">
+        <v>262</v>
+      </c>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2407,14 +2585,16 @@
       <c r="D93" t="s">
         <v>35</v>
       </c>
-      <c r="E93" s="1">
-        <v>5240.360722638793</v>
-      </c>
-      <c r="F93" s="1">
-        <v>261.72738423743488</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>5240</v>
+      </c>
+      <c r="F93">
+        <v>262</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2427,14 +2607,16 @@
       <c r="D94" t="s">
         <v>36</v>
       </c>
-      <c r="E94" s="1">
-        <v>5095.3792327417059</v>
-      </c>
-      <c r="F94" s="1">
-        <v>399.72314747739466</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>5095</v>
+      </c>
+      <c r="F94">
+        <v>400</v>
+      </c>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2447,14 +2629,16 @@
       <c r="D95" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="1">
-        <v>494.9033999171441</v>
-      </c>
-      <c r="F95" s="1">
-        <v>62.624917657604094</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>495</v>
+      </c>
+      <c r="F95">
+        <v>63</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2467,14 +2651,16 @@
       <c r="D96" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="1">
-        <v>684.78926342617842</v>
-      </c>
-      <c r="F96" s="1">
-        <v>59.154747261836754</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>685</v>
+      </c>
+      <c r="F96">
+        <v>59</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2487,14 +2673,16 @@
       <c r="D97" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="1">
-        <v>951.32054941036222</v>
-      </c>
-      <c r="F97" s="1">
-        <v>60.140178578809454</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>951</v>
+      </c>
+      <c r="F97">
+        <v>60</v>
+      </c>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2507,14 +2695,16 @@
       <c r="D98" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="1">
-        <v>1242.8109548598973</v>
-      </c>
-      <c r="F98" s="1">
-        <v>54.209299196126096</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>1243</v>
+      </c>
+      <c r="F98">
+        <v>54</v>
+      </c>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2527,14 +2717,16 @@
       <c r="D99" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="1">
-        <v>1416.0321423314756</v>
-      </c>
-      <c r="F99" s="1">
-        <v>80.253940802115778</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>1416</v>
+      </c>
+      <c r="F99">
+        <v>80</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2547,14 +2739,16 @@
       <c r="D100" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="1">
-        <v>1441.6168230372905</v>
-      </c>
-      <c r="F100" s="1">
-        <v>85.31326621648266</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>1442</v>
+      </c>
+      <c r="F100">
+        <v>85</v>
+      </c>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2567,14 +2761,16 @@
       <c r="D101" t="s">
         <v>12</v>
       </c>
-      <c r="E101" s="1">
-        <v>1906.0650448102838</v>
-      </c>
-      <c r="F101" s="1">
-        <v>131.06721779790084</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>1906</v>
+      </c>
+      <c r="F101">
+        <v>131</v>
+      </c>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2587,14 +2783,16 @@
       <c r="D102" t="s">
         <v>13</v>
       </c>
-      <c r="E102" s="1">
-        <v>2176.5653801146614</v>
-      </c>
-      <c r="F102" s="1">
-        <v>136.37194719190015</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>2177</v>
+      </c>
+      <c r="F102">
+        <v>136</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2607,14 +2805,16 @@
       <c r="D103" t="s">
         <v>14</v>
       </c>
-      <c r="E103" s="1">
-        <v>2355.7140692458852</v>
-      </c>
-      <c r="F103" s="1">
-        <v>122.27944843857023</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>2356</v>
+      </c>
+      <c r="F103">
+        <v>122</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2627,14 +2827,16 @@
       <c r="D104" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="1">
-        <v>2759.0609080962536</v>
-      </c>
-      <c r="F104" s="1">
-        <v>182.32588121722677</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>2759</v>
+      </c>
+      <c r="F104">
+        <v>182</v>
+      </c>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -2647,14 +2849,16 @@
       <c r="D105" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="1">
-        <v>3230.3184808080232</v>
-      </c>
-      <c r="F105" s="1">
-        <v>195.13666781798753</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>3230</v>
+      </c>
+      <c r="F105">
+        <v>195</v>
+      </c>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2667,14 +2871,16 @@
       <c r="D106" t="s">
         <v>17</v>
       </c>
-      <c r="E106" s="1">
-        <v>3495.5912500027293</v>
-      </c>
-      <c r="F106" s="1">
-        <v>271.16984653002282</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>3496</v>
+      </c>
+      <c r="F106">
+        <v>271</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2687,14 +2893,16 @@
       <c r="D107" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="1">
-        <v>4208.0623398827665</v>
-      </c>
-      <c r="F107" s="1">
-        <v>282.42191100673051</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>4208</v>
+      </c>
+      <c r="F107">
+        <v>282</v>
+      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -2707,14 +2915,16 @@
       <c r="D108" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="1">
-        <v>4966.8797352351758</v>
-      </c>
-      <c r="F108" s="1">
-        <v>251.80474681775164</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>4967</v>
+      </c>
+      <c r="F108">
+        <v>252</v>
+      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -2727,14 +2937,16 @@
       <c r="D109" t="s">
         <v>20</v>
       </c>
-      <c r="E109" s="1">
-        <v>6266.8202091887006</v>
-      </c>
-      <c r="F109" s="1">
-        <v>385.36739612498849</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>6267</v>
+      </c>
+      <c r="F109">
+        <v>385</v>
+      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2747,14 +2959,16 @@
       <c r="D110" t="s">
         <v>21</v>
       </c>
-      <c r="E110" s="1">
-        <v>7363.0618205593128</v>
-      </c>
-      <c r="F110" s="1">
-        <v>392.70493947773997</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>7363</v>
+      </c>
+      <c r="F110">
+        <v>393</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2767,14 +2981,16 @@
       <c r="D111" t="s">
         <v>22</v>
       </c>
-      <c r="E111" s="1">
-        <v>7338.4824749346753</v>
-      </c>
-      <c r="F111" s="1">
-        <v>411.62130147300957</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>7338</v>
+      </c>
+      <c r="F111">
+        <v>412</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -2787,14 +3003,16 @@
       <c r="D112" t="s">
         <v>23</v>
       </c>
-      <c r="E112" s="1">
-        <v>4740.7076764341446</v>
-      </c>
-      <c r="F112" s="1">
-        <v>235.82234026932929</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>4741</v>
+      </c>
+      <c r="F112">
+        <v>236</v>
+      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -2807,14 +3025,16 @@
       <c r="D113" t="s">
         <v>24</v>
       </c>
-      <c r="E113" s="1">
-        <v>4581.2440102632045</v>
-      </c>
-      <c r="F113" s="1">
-        <v>274.38185397655479</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>4581</v>
+      </c>
+      <c r="F113">
+        <v>274</v>
+      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -2827,14 +3047,16 @@
       <c r="D114" t="s">
         <v>25</v>
       </c>
-      <c r="E114" s="1">
-        <v>5544.3261495491915</v>
-      </c>
-      <c r="F114" s="1">
-        <v>437.49849058269444</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>5544</v>
+      </c>
+      <c r="F114">
+        <v>437</v>
+      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -2847,14 +3069,16 @@
       <c r="D115" t="s">
         <v>26</v>
       </c>
-      <c r="E115" s="1">
-        <v>6392.6881836758885</v>
-      </c>
-      <c r="F115" s="1">
-        <v>397.13213399546163</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>6393</v>
+      </c>
+      <c r="F115">
+        <v>397</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -2867,14 +3091,16 @@
       <c r="D116" t="s">
         <v>27</v>
       </c>
-      <c r="E116" s="1">
-        <v>7789.1246163375918</v>
-      </c>
-      <c r="F116" s="1">
-        <v>541.90860918513738</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>7789</v>
+      </c>
+      <c r="F116">
+        <v>542</v>
+      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -2887,14 +3113,16 @@
       <c r="D117" t="s">
         <v>28</v>
       </c>
-      <c r="E117" s="1">
-        <v>9012.1419014834846</v>
-      </c>
-      <c r="F117" s="1">
-        <v>649.4287674676649</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>9012</v>
+      </c>
+      <c r="F117">
+        <v>649</v>
+      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -2907,14 +3135,16 @@
       <c r="D118" t="s">
         <v>29</v>
       </c>
-      <c r="E118" s="1">
-        <v>9995.2021776355687</v>
-      </c>
-      <c r="F118" s="1">
-        <v>611.7688585336698</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>9995</v>
+      </c>
+      <c r="F118">
+        <v>612</v>
+      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -2927,14 +3157,16 @@
       <c r="D119" t="s">
         <v>30</v>
       </c>
-      <c r="E119" s="1">
-        <v>10039.128979966164</v>
-      </c>
-      <c r="F119" s="1">
-        <v>556.51807388156431</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>10039</v>
+      </c>
+      <c r="F119">
+        <v>557</v>
+      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -2947,14 +3179,16 @@
       <c r="D120" t="s">
         <v>31</v>
       </c>
-      <c r="E120" s="1">
-        <v>11272.039583974109</v>
-      </c>
-      <c r="F120" s="1">
-        <v>629.02516377911445</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>11272</v>
+      </c>
+      <c r="F120">
+        <v>629</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -2967,14 +3201,16 @@
       <c r="D121" t="s">
         <v>32</v>
       </c>
-      <c r="E121" s="1">
-        <v>12386.260141858033</v>
-      </c>
-      <c r="F121" s="1">
-        <v>563.72383113602223</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>12386</v>
+      </c>
+      <c r="F121">
+        <v>564</v>
+      </c>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -2987,14 +3223,16 @@
       <c r="D122" t="s">
         <v>33</v>
       </c>
-      <c r="E122" s="1">
-        <v>6417.451556775839</v>
-      </c>
-      <c r="F122" s="1">
-        <v>439.78562615280634</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>6417</v>
+      </c>
+      <c r="F122">
+        <v>440</v>
+      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -3007,14 +3245,16 @@
       <c r="D123" t="s">
         <v>34</v>
       </c>
-      <c r="E123" s="1">
-        <v>7572.6795810831782</v>
-      </c>
-      <c r="F123" s="1">
-        <v>409.89411753860929</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>7573</v>
+      </c>
+      <c r="F123">
+        <v>410</v>
+      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3027,14 +3267,16 @@
       <c r="D124" t="s">
         <v>35</v>
       </c>
-      <c r="E124" s="1">
-        <v>8384.6383693058942</v>
-      </c>
-      <c r="F124" s="1">
-        <v>451.03050373514679</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>8385</v>
+      </c>
+      <c r="F124">
+        <v>451</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -3047,12 +3289,14 @@
       <c r="D125" t="s">
         <v>36</v>
       </c>
-      <c r="E125" s="1">
-        <v>7973.3048315169499</v>
-      </c>
-      <c r="F125" s="1">
-        <v>652.87386896724217</v>
-      </c>
+      <c r="E125">
+        <v>7973</v>
+      </c>
+      <c r="F125">
+        <v>653</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
